--- a/ADM25JS010/SPE Java Standard Delta Curriculum_v1.0.xlsx
+++ b/ADM25JS010/SPE Java Standard Delta Curriculum_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2429947_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2429947_cognizant_com/Documents/Desktop/Java_Standard/Cognizant_Training/ADM25JS010/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F29248E9-ED90-4EB8-B557-F19E3A68EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87EB5649-E148-4010-A53F-F9D010A34A37}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="8170" tabRatio="811" activeTab="1" xr2:uid="{AD271FCD-1124-452C-8EE3-FE619F9CD99B}"/>
+    <workbookView minimized="1" xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="8170" tabRatio="811" firstSheet="3" activeTab="4" xr2:uid="{AD271FCD-1124-452C-8EE3-FE619F9CD99B}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Curriculum" sheetId="1" r:id="rId1"/>
@@ -4301,9 +4301,9 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5454,7 +5454,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5678,8 +5678,8 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6063,9 +6063,9 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7334,7 +7334,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
